--- a/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4810F55D-6CD2-4EE0-898A-8E8C9734680E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82389AD2-DB78-4ECE-BE89-769F9A7B852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43B08F72-E38D-4525-858F-EE5661DAF2F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D013279E-D1E9-4EB8-B577-53661978EF6B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>16,8%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
   </si>
   <si>
     <t>69,35%</t>
   </si>
   <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162EA882-6058-4590-8D5B-AE42DC9FF795}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8269325B-C84D-44D2-9E82-B5F1B554A983}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1778,7 +1778,7 @@
         <v>231</v>
       </c>
       <c r="D19" s="7">
-        <v>156175</v>
+        <v>156176</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1880,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82389AD2-DB78-4ECE-BE89-769F9A7B852C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE05CD7-8388-4F2A-810D-2F1C87684B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D013279E-D1E9-4EB8-B577-53661978EF6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC6BD967-55A4-4975-9F76-7E0A823839B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8269325B-C84D-44D2-9E82-B5F1B554A983}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB8D6B-379D-477B-9736-31FC3F69ECC6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FE05CD7-8388-4F2A-810D-2F1C87684B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78E48D9-D337-4CEB-95B3-29B64E3F693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CC6BD967-55A4-4975-9F76-7E0A823839B4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D835107-620B-49EC-B96D-C8EC8189B704}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>4,75%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>95,25%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>5,59%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>90,83%</t>
   </si>
   <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>10,15%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>88,21%</t>
   </si>
   <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
   </si>
   <si>
     <t>89,01%</t>
   </si>
   <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +251,55 @@
     <t>12,18%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>84,1%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +308,55 @@
     <t>16,8%</t>
   </si>
   <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
   </si>
   <si>
     <t>83,2%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>76,39%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +365,109 @@
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
   </si>
   <si>
     <t>30,65%</t>
   </si>
   <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>69,35%</t>
   </si>
   <si>
-    <t>64,91%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>86,9%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB8D6B-379D-477B-9736-31FC3F69ECC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740BC1-E3C5-4547-A0AD-FC5B0FC8684F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1778,7 +1778,7 @@
         <v>231</v>
       </c>
       <c r="D19" s="7">
-        <v>156176</v>
+        <v>156175</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1880,7 +1880,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78E48D9-D337-4CEB-95B3-29B64E3F693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{430AECA9-2914-4C8B-A680-CA55843586A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0D835107-620B-49EC-B96D-C8EC8189B704}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6811898D-8F0C-46C6-887D-694EFA8CE361}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="160">
   <si>
     <t>Población que tiene dificultad para dormirse por la noche en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -65,409 +65,454 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>26,26%</t>
   </si>
   <si>
     <t>22,38%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
   </si>
   <si>
     <t>77,62%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7740BC1-E3C5-4547-A0AD-FC5B0FC8684F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD2FD41-C4DB-4505-ADF7-86DF5F9BB301}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>17957</v>
+        <v>19143</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1063,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>28604</v>
+        <v>25655</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="N4" s="7">
-        <v>46561</v>
+        <v>44798</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1099,7 @@
         <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>359722</v>
+        <v>380844</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1114,7 @@
         <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>326353</v>
+        <v>287545</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1129,7 @@
         <v>356</v>
       </c>
       <c r="N5" s="7">
-        <v>686075</v>
+        <v>668389</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1150,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1165,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1180,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>23936</v>
+        <v>25274</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1218,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>45732</v>
+        <v>41202</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1233,7 @@
         <v>58</v>
       </c>
       <c r="N7" s="7">
-        <v>69668</v>
+        <v>66476</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1197,7 +1242,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1209,46 +1254,46 @@
         <v>284</v>
       </c>
       <c r="D8" s="7">
-        <v>404460</v>
+        <v>398273</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>420</v>
       </c>
       <c r="I8" s="7">
-        <v>452845</v>
+        <v>470302</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>704</v>
       </c>
       <c r="N8" s="7">
-        <v>857305</v>
+        <v>868575</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1260,7 +1305,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1320,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1335,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1304,7 +1349,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1313,46 +1358,46 @@
         <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>56548</v>
+        <v>53678</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>99</v>
       </c>
       <c r="I10" s="7">
-        <v>68769</v>
+        <v>63380</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>148</v>
       </c>
       <c r="N10" s="7">
-        <v>125318</v>
+        <v>117058</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1364,46 +1409,46 @@
         <v>497</v>
       </c>
       <c r="D11" s="7">
-        <v>500704</v>
+        <v>482660</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>747</v>
       </c>
       <c r="I11" s="7">
-        <v>514707</v>
+        <v>479088</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1244</v>
       </c>
       <c r="N11" s="7">
-        <v>1015409</v>
+        <v>961748</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1415,7 +1460,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1475,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1490,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1459,7 +1504,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1468,46 +1513,46 @@
         <v>84</v>
       </c>
       <c r="D13" s="7">
-        <v>88171</v>
+        <v>83899</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>226</v>
       </c>
       <c r="I13" s="7">
-        <v>145631</v>
+        <v>133920</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>310</v>
       </c>
       <c r="N13" s="7">
-        <v>233801</v>
+        <v>217819</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1519,46 +1564,46 @@
         <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>635819</v>
+        <v>803887</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>914</v>
       </c>
       <c r="I14" s="7">
-        <v>601223</v>
+        <v>578578</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1495</v>
       </c>
       <c r="N14" s="7">
-        <v>1237043</v>
+        <v>1382466</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1570,7 +1615,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1630,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1645,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1614,7 +1659,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1623,46 +1668,46 @@
         <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>100653</v>
+        <v>92731</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>299</v>
       </c>
       <c r="I16" s="7">
-        <v>181029</v>
+        <v>164391</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>408</v>
       </c>
       <c r="N16" s="7">
-        <v>281682</v>
+        <v>257122</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1674,46 +1719,46 @@
         <v>553</v>
       </c>
       <c r="D17" s="7">
-        <v>498427</v>
+        <v>467473</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>701</v>
       </c>
       <c r="I17" s="7">
-        <v>412729</v>
+        <v>380672</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1254</v>
       </c>
       <c r="N17" s="7">
-        <v>911155</v>
+        <v>848145</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1725,7 +1770,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1785,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593758</v>
+        <v>545063</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1800,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192837</v>
+        <v>1105267</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1769,55 +1814,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="D19" s="7">
-        <v>156175</v>
+        <v>67263</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>234</v>
+      </c>
+      <c r="I19" s="7">
+        <v>115336</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="7">
-        <v>560</v>
-      </c>
-      <c r="I19" s="7">
-        <v>314457</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>341</v>
+      </c>
+      <c r="N19" s="7">
+        <v>182599</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M19" s="7">
-        <v>791</v>
-      </c>
-      <c r="N19" s="7">
-        <v>470633</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,49 +1871,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>797</v>
+        <v>463</v>
       </c>
       <c r="D20" s="7">
-        <v>541579</v>
+        <v>300902</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>592</v>
+      </c>
+      <c r="I20" s="7">
+        <v>492466</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="7">
-        <v>1147</v>
-      </c>
-      <c r="I20" s="7">
-        <v>711569</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1055</v>
+      </c>
+      <c r="N20" s="7">
+        <v>793369</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="M20" s="7">
-        <v>1944</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1253147</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1707</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1026026</v>
+        <v>607802</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2735</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723780</v>
+        <v>975968</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1969,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>498</v>
+        <v>124</v>
       </c>
       <c r="D22" s="7">
-        <v>443441</v>
+        <v>74257</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>326</v>
+      </c>
+      <c r="I22" s="7">
+        <v>162175</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H22" s="7">
-        <v>1240</v>
-      </c>
-      <c r="I22" s="7">
-        <v>784223</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>450</v>
+      </c>
+      <c r="N22" s="7">
+        <v>236431</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M22" s="7">
-        <v>1738</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1227663</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2026,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2877</v>
+        <v>334</v>
       </c>
       <c r="D23" s="7">
-        <v>2940710</v>
+        <v>208502</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>555</v>
+      </c>
+      <c r="I23" s="7">
+        <v>263656</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H23" s="7">
-        <v>4120</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3019424</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>889</v>
+      </c>
+      <c r="N23" s="7">
+        <v>472159</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M23" s="7">
-        <v>6997</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5960135</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2077,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>498</v>
+      </c>
+      <c r="D25" s="7">
+        <v>416243</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1240</v>
+      </c>
+      <c r="I25" s="7">
+        <v>706060</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1738</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1122303</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2877</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3042544</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4120</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2952306</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6997</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5994851</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384151</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458787</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803647</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658366</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8735</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187798</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7117154</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
